--- a/trend_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
+++ b/trend_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.330069764243831</v>
+        <v>0.6699302357561689</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9318039111677729</v>
+        <v>0.06819608883222709</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.258169754779047</v>
+        <v>0.741830245220953</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.321180998100135</v>
+        <v>0.678819001899865</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">

--- a/trend_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
+++ b/trend_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.811692043006142</v>
+        <v>0.663843034985196</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.660714285714286</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>157.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.86657185505173</v>
+        <v>-2.65058055152395</v>
       </c>
       <c r="L2" t="n">
-        <v>-17.3171041090258</v>
+        <v>-14.2774411938331</v>
       </c>
       <c r="M2" t="n">
-        <v>4.96455832671505</v>
+        <v>8.189355470075339</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.72480752701697</v>
+        <v>-1.68290828668187</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6699302357561689</v>
+        <v>0.203636393977046</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8979591836734691</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>11.24</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06933164714889981</v>
+        <v>-0.07964953271027971</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.185925143781188</v>
+        <v>-0.235012161645526</v>
       </c>
       <c r="M3" t="n">
-        <v>0.449167621691867</v>
+        <v>0.0845545742605892</v>
       </c>
       <c r="N3" t="n">
-        <v>0.616829600968859</v>
+        <v>-0.708625735856581</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,11 +751,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.317333272817901</v>
+        <v>0.240440733425395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0002996310465961</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0007755708951254</v>
+        <v>-0.0003780024532736</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0014960008944945</v>
+        <v>0.0012811047389365</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.32923385106822</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -842,36 +842,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.450627510602245</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.893617021276596</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.276595744680851</v>
+        <v>0.1875</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -879,7 +867,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,7 +925,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.754462499912041</v>
+        <v>0.998384516613228</v>
       </c>
       <c r="G6" t="n">
         <v>0.865384615384615</v>
@@ -970,7 +958,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1032,10 +1020,10 @@
         <v>0.9807692307692309</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,31 +1095,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.06819608883222709</v>
+        <v>0.032349197504054</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.84</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.905</v>
+        <v>7.865</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0487591019417473</v>
+        <v>-0.0478243935367736</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.108246117861575</v>
+        <v>-0.0854060824177271</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0029782711293897</v>
+        <v>-0.0070090977074234</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.616813433798195</v>
+        <v>-0.608066033525411</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1128,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1194,31 +1182,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.913075966559393</v>
+        <v>0.995257725331926</v>
       </c>
       <c r="G9" t="n">
-        <v>0.346153846153846</v>
+        <v>0.211538461538462</v>
       </c>
       <c r="H9" t="n">
-        <v>0.307692307692308</v>
+        <v>0.365384615384615</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007</v>
+        <v>0.00675</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.000535623024236</v>
+        <v>-0.0010870535714285</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0010620413866271</v>
+        <v>-0.0014916328258204</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.0006202927021782</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.65175748908626</v>
+        <v>-16.1044973544974</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1227,7 +1215,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1273,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0001002226614473</v>
+        <v>0.0002401380594218</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.54</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>132.5</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>9.317602040816331</v>
+        <v>8.790613718411549</v>
       </c>
       <c r="L10" t="n">
-        <v>5.98104605641119</v>
+        <v>5.16522093124125</v>
       </c>
       <c r="M10" t="n">
-        <v>12.9641117760885</v>
+        <v>12.7945238302441</v>
       </c>
       <c r="N10" t="n">
-        <v>7.03215248363496</v>
+        <v>6.27900979886539</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1376,31 +1364,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.741830245220953</v>
+        <v>0.418446339907522</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.890625</v>
+        <v>0.88</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.19</v>
+        <v>11.24</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0395259806791583</v>
+        <v>-0.013330291970803</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0714291056856724</v>
+        <v>-0.102000617808653</v>
       </c>
       <c r="M11" t="n">
-        <v>0.15934365774571</v>
+        <v>0.0914970580767371</v>
       </c>
       <c r="N11" t="n">
-        <v>0.353225922065758</v>
+        <v>-0.118596903654831</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1397,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1467,31 +1455,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.958692632511962</v>
+        <v>0.9978983410042001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0520833333333333</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.239583333333333</v>
+        <v>0.278350515463918</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.011</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0003753854059609</v>
+        <v>-0.0005482878963142</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0007498954403802</v>
+        <v>-0.0008632355105724</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.0002468709211968</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.41259459964496</v>
+        <v>-4.98443542103829</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1488,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1558,16 +1546,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.519181763062289</v>
+        <v>0.825180588708565</v>
       </c>
       <c r="G13" t="n">
-        <v>0.883720930232558</v>
+        <v>0.887640449438202</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27906976744186</v>
+        <v>0.258426966292135</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>0.005</v>
@@ -1591,7 +1579,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1649,13 +1637,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.973531861300002</v>
+        <v>0.90815807708855</v>
       </c>
       <c r="G14" t="n">
-        <v>0.666666666666667</v>
+        <v>0.752577319587629</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0625</v>
+        <v>0.0618556701030928</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1682,7 +1670,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1736,36 +1724,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.834838367922905</v>
-      </c>
+          <t>&lt; 3 unique values</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.947916666666667</v>
+        <v>0.958762886597938</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0309278350515464</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -1773,7 +1749,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1831,31 +1807,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.678819001899865</v>
+        <v>0.099424500971085</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.707865168539326</v>
+        <v>0.720430107526882</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0068805661147309</v>
+        <v>-0.0162341999666984</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0179196357502807</v>
+        <v>-0.0350003663974085</v>
       </c>
       <c r="M16" t="n">
-        <v>0.037027465760461</v>
+        <v>0.0035307275466673</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0872061611499481</v>
+        <v>-0.206017766074853</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1840,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1914,17 +1890,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.69799415206114</v>
+        <v>0.943025494138129</v>
       </c>
       <c r="G17" t="n">
-        <v>0.333333333333333</v>
+        <v>0.329896907216495</v>
       </c>
       <c r="H17" t="n">
-        <v>0.260416666666667</v>
+        <v>0.360824742268041</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -1933,16 +1909,16 @@
         <v>0.007</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.0001611871452484</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.0004784912855921</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-2.30267350354872</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1951,7 +1927,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">

--- a/trend_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
+++ b/trend_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -112,55 +112,67 @@
     <t>SIN (Soluble Inorganic nitrogen)</t>
   </si>
   <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>&lt; 5 Non-censored values</t>
   </si>
   <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -539,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,40 +642,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>0.663843034985196</v>
+        <v>0.896861911240836</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.672413793103448</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>157.5</v>
+        <v>155</v>
       </c>
       <c r="K2">
-        <v>-2.65058055152395</v>
+        <v>-8.89850904304029</v>
       </c>
       <c r="L2">
-        <v>-14.2774411938331</v>
+        <v>-23.7489514196216</v>
       </c>
       <c r="M2">
-        <v>8.189355470075339</v>
+        <v>2.57705893061563</v>
       </c>
       <c r="N2">
-        <v>-1.68290828668187</v>
+        <v>-5.74097357615503</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>1838908</v>
@@ -672,19 +684,19 @@
         <v>5631468</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -698,43 +710,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>0.203636393977046</v>
+        <v>0.0009830930400409001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.862745098039216</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.24</v>
+        <v>11.32</v>
       </c>
       <c r="K3">
-        <v>-0.07964953271027971</v>
+        <v>-0.106543578319464</v>
       </c>
       <c r="L3">
-        <v>-0.235012161645526</v>
+        <v>-0.152368796988324</v>
       </c>
       <c r="M3">
-        <v>0.0845545742605892</v>
+        <v>-0.0500853671852791</v>
       </c>
       <c r="N3">
-        <v>-0.708625735856581</v>
+        <v>-0.941197688334486</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>1838908</v>
@@ -743,19 +755,19 @@
         <v>5631468</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -772,40 +784,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.240440733425395</v>
+        <v>0.0004793267804762</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.423076923076923</v>
+        <v>0.375</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K4">
-        <v>0.0002996310465961</v>
+        <v>0.0010435714285714</v>
       </c>
       <c r="L4">
-        <v>-0.0003780024532736</v>
+        <v>0.0005502442990675</v>
       </c>
       <c r="M4">
-        <v>0.0012811047389365</v>
+        <v>0.001630009549867</v>
       </c>
       <c r="N4">
-        <v>3.32923385106822</v>
+        <v>13.0446428571429</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>1838908</v>
@@ -814,19 +826,19 @@
         <v>5631468</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -843,19 +855,37 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>0.759057096980767</v>
       </c>
       <c r="G5">
-        <v>0.916666666666667</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="H5">
-        <v>0.1875</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.005</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
         <v>41</v>
@@ -867,19 +897,19 @@
         <v>5631468</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -896,40 +926,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>0.998384516613228</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>0.865384615384615</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="H6">
-        <v>0.0769230769230769</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>0.001</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1838908</v>
@@ -938,19 +950,19 @@
         <v>5631468</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -967,22 +979,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>0.9807692307692309</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H7">
-        <v>0.0384615384615385</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1838908</v>
@@ -991,19 +1003,19 @@
         <v>5631468</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1017,19 +1029,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>0.032349197504054</v>
+        <v>0.267938882261268</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.788461538461538</v>
+        <v>0.75</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1038,22 +1050,22 @@
         <v>7.865</v>
       </c>
       <c r="K8">
-        <v>-0.0478243935367736</v>
+        <v>-0.026683676594106</v>
       </c>
       <c r="L8">
-        <v>-0.0854060824177271</v>
+        <v>-0.0590816165326223</v>
       </c>
       <c r="M8">
-        <v>-0.0070090977074234</v>
+        <v>0.0191967605075665</v>
       </c>
       <c r="N8">
-        <v>-0.608066033525411</v>
+        <v>-0.339271158221309</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1838908</v>
@@ -1062,16 +1074,16 @@
         <v>5631468</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1091,37 +1103,37 @@
         <v>34</v>
       </c>
       <c r="F9">
-        <v>0.995257725331926</v>
+        <v>0.912259838244752</v>
       </c>
       <c r="G9">
-        <v>0.211538461538462</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="H9">
-        <v>0.365384615384615</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.00675</v>
+        <v>0.0045</v>
       </c>
       <c r="K9">
-        <v>-0.0010870535714285</v>
+        <v>-0.0004047450437972</v>
       </c>
       <c r="L9">
-        <v>-0.0014916328258204</v>
+        <v>-0.0010271688051836</v>
       </c>
       <c r="M9">
-        <v>-0.0006202927021782</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-16.1044973544974</v>
+        <v>-8.99433430660638</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1838908</v>
@@ -1130,19 +1142,19 @@
         <v>5631468</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,49 +1162,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>0.0002401380594218</v>
+        <v>0.264392516901991</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H10">
-        <v>0.529411764705882</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>140</v>
+        <v>0.05</v>
       </c>
       <c r="K10">
-        <v>8.790613718411549</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.16522093124125</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.7945238302441</v>
+        <v>0.0034463990368011</v>
       </c>
       <c r="N10">
-        <v>6.27900979886539</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1838908</v>
@@ -1201,19 +1213,19 @@
         <v>5631468</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,49 +1233,49 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.418446339907522</v>
+        <v>0.0237154025613174</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.88</v>
+        <v>0.375</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.24</v>
+        <v>0.01</v>
       </c>
       <c r="K11">
-        <v>-0.013330291970803</v>
+        <v>0.0006198647866351</v>
       </c>
       <c r="L11">
-        <v>-0.102000617808653</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0914970580767371</v>
+        <v>0.0011343167701863</v>
       </c>
       <c r="N11">
-        <v>-0.118596903654831</v>
+        <v>6.19864786635197</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1838908</v>
@@ -1272,19 +1284,19 @@
         <v>5631468</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,7 +1304,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1301,40 +1313,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>0.9978983410042001</v>
+        <v>0.0083034923661887</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.278350515463918</v>
+        <v>0.540816326530612</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.011</v>
+        <v>145</v>
       </c>
       <c r="K12">
-        <v>-0.0005482878963142</v>
+        <v>7.22876934148974</v>
       </c>
       <c r="L12">
-        <v>-0.0008632355105724</v>
+        <v>2.31079204332901</v>
       </c>
       <c r="M12">
-        <v>-0.0002468709211968</v>
+        <v>12.0186214208669</v>
       </c>
       <c r="N12">
-        <v>-4.98443542103829</v>
+        <v>4.98535816654465</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>1838908</v>
@@ -1343,19 +1355,19 @@
         <v>5631468</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1372,40 +1384,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>0.825180588708565</v>
+        <v>0.454210366980127</v>
       </c>
       <c r="G13">
-        <v>0.887640449438202</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.258426966292135</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.005</v>
+        <v>11.09</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-0.0055312973245834</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0781664127449732</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07512297454783171</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-0.0498764411594538</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1838908</v>
@@ -1414,19 +1426,19 @@
         <v>5631468</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,7 +1446,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1446,37 +1458,37 @@
         <v>34</v>
       </c>
       <c r="F14">
-        <v>0.90815807708855</v>
+        <v>0.902625946106375</v>
       </c>
       <c r="G14">
-        <v>0.752577319587629</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0618556701030928</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-0.0001932539682539</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-0.0004537329730606</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-1.93253968253968</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1838908</v>
@@ -1485,19 +1497,19 @@
         <v>5631468</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1516,20 +1528,38 @@
       <c r="E15" t="s">
         <v>35</v>
       </c>
+      <c r="F15">
+        <v>0.50729277786734</v>
+      </c>
       <c r="G15">
-        <v>0.958762886597938</v>
+        <v>0.904255319148936</v>
       </c>
       <c r="H15">
-        <v>0.0309278350515464</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>0.005</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1838908</v>
@@ -1538,19 +1568,19 @@
         <v>5631468</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1558,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1567,40 +1597,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.099424500971085</v>
+        <v>0.9496849823683849</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.872549019607843</v>
       </c>
       <c r="H16">
-        <v>0.720430107526882</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>7.88</v>
+        <v>0.001</v>
       </c>
       <c r="K16">
-        <v>-0.0162341999666984</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0350003663974085</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0035307275466673</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-0.206017766074853</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q16">
         <v>1838908</v>
@@ -1609,16 +1639,19 @@
         <v>5631468</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1626,7 +1659,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1635,61 +1668,676 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>0.943025494138129</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>0.329896907216495</v>
+        <v>0.950980392156863</v>
       </c>
       <c r="H17">
-        <v>0.360824742268041</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17">
+        <v>1838908</v>
+      </c>
+      <c r="R17">
+        <v>5631468</v>
+      </c>
+      <c r="S17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>0.104616573393371</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.683673469387755</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.89</v>
+      </c>
+      <c r="K18">
+        <v>-0.0149748415952293</v>
+      </c>
+      <c r="L18">
+        <v>-0.0327206055274253</v>
+      </c>
+      <c r="M18">
+        <v>0.0039718449748823</v>
+      </c>
+      <c r="N18">
+        <v>-0.189795203995301</v>
+      </c>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18">
+        <v>1838908</v>
+      </c>
+      <c r="R18">
+        <v>5631468</v>
+      </c>
+      <c r="S18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>0.962761582204651</v>
+      </c>
+      <c r="G19">
+        <v>0.323529411764706</v>
+      </c>
+      <c r="H19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>0.007</v>
       </c>
-      <c r="K17">
-        <v>-0.0001611871452484</v>
-      </c>
-      <c r="L17">
-        <v>-0.0004784912855921</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>-2.30267350354872</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17">
-        <v>1838908</v>
-      </c>
-      <c r="R17">
-        <v>5631468</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="K19">
+        <v>-0.0003961496746203</v>
+      </c>
+      <c r="L19">
+        <v>-0.0006171284265183001</v>
+      </c>
+      <c r="M19">
+        <v>-0.0001679810789065</v>
+      </c>
+      <c r="N19">
+        <v>-5.65928106600557</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19">
+        <v>1838908</v>
+      </c>
+      <c r="R19">
+        <v>5631468</v>
+      </c>
+      <c r="S19" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>9.220653370447061E-09</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.507462686567164</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>127.5</v>
+      </c>
+      <c r="K20">
+        <v>9.72962173681406</v>
+      </c>
+      <c r="L20">
+        <v>7.22961641508135</v>
+      </c>
+      <c r="M20">
+        <v>12.3208238457356</v>
+      </c>
+      <c r="N20">
+        <v>7.63107587201103</v>
+      </c>
+      <c r="O20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20">
+        <v>1838908</v>
+      </c>
+      <c r="R20">
+        <v>5631468</v>
+      </c>
+      <c r="S20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>0.0323872412463252</v>
+      </c>
+      <c r="G21">
+        <v>0.15</v>
+      </c>
+      <c r="H21">
+        <v>0.178571428571429</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.01</v>
+      </c>
+      <c r="K21">
+        <v>0.0002396409379842</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.0004387831848528</v>
+      </c>
+      <c r="N21">
+        <v>2.39640937984274</v>
+      </c>
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21">
+        <v>1838908</v>
+      </c>
+      <c r="R21">
+        <v>5631468</v>
+      </c>
+      <c r="S21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0.5075420443902861</v>
+      </c>
+      <c r="G22">
+        <v>0.9</v>
+      </c>
+      <c r="H22">
+        <v>0.225</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>0.005</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22">
+        <v>1838908</v>
+      </c>
+      <c r="R22">
+        <v>5631468</v>
+      </c>
+      <c r="S22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>0.98482513469683</v>
+      </c>
+      <c r="G23">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H23">
+        <v>0.0507246376811594</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.001</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23">
+        <v>1838908</v>
+      </c>
+      <c r="R23">
+        <v>5631468</v>
+      </c>
+      <c r="S23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>0.993627036798025</v>
+      </c>
+      <c r="G24">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="H24">
+        <v>0.0507246376811594</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0.0025</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24">
+        <v>1838908</v>
+      </c>
+      <c r="R24">
+        <v>5631468</v>
+      </c>
+      <c r="S24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U24" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>0.409435807612408</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.629032258064516</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.885</v>
+      </c>
+      <c r="K25">
+        <v>-0.0018391234013696</v>
+      </c>
+      <c r="L25">
+        <v>-0.0170585738692467</v>
+      </c>
+      <c r="M25">
+        <v>0.0134515151537042</v>
+      </c>
+      <c r="N25">
+        <v>-0.0233243297573833</v>
+      </c>
+      <c r="O25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
         <v>49</v>
       </c>
-      <c r="T17" t="s">
-        <v>50</v>
-      </c>
-      <c r="U17" t="s">
-        <v>51</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="Q25">
+        <v>1838908</v>
+      </c>
+      <c r="R25">
+        <v>5631468</v>
+      </c>
+      <c r="S25" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>0.992150242151172</v>
+      </c>
+      <c r="G26">
+        <v>0.282608695652174</v>
+      </c>
+      <c r="H26">
+        <v>0.36231884057971</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>0.007</v>
+      </c>
+      <c r="K26">
+        <v>-0.0002995436507936</v>
+      </c>
+      <c r="L26">
+        <v>-0.0004445935461612</v>
+      </c>
+      <c r="M26">
+        <v>-0.0001287910932634</v>
+      </c>
+      <c r="N26">
+        <v>-4.27919501133787</v>
+      </c>
+      <c r="O26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" t="s">
         <v>52</v>
       </c>
-      <c r="W17" t="s">
-        <v>54</v>
+      <c r="Q26">
+        <v>1838908</v>
+      </c>
+      <c r="R26">
+        <v>5631468</v>
+      </c>
+      <c r="S26" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
